--- a/tests/test-files/test_wrangling/expected/book_replicatescurve.xlsx
+++ b/tests/test-files/test_wrangling/expected/book_replicatescurve.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -522,10 +522,10 @@
         <v>-0.0449149826048274</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0007480415825368112</v>
+        <v>0.0007480415825368113</v>
       </c>
       <c r="L2" t="n">
-        <v>-3.094623847081586</v>
+        <v>-3.094623807344583</v>
       </c>
     </row>
     <row r="3">
@@ -563,7 +563,7 @@
         <v>0.001363389784438335</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.13753229721413</v>
+        <v>-4.137532299401352</v>
       </c>
     </row>
     <row r="4">
@@ -598,10 +598,10 @@
         <v>0.01170683287223023</v>
       </c>
       <c r="K4" t="n">
-        <v>9.961778233350929e-05</v>
+        <v>9.961778233349362e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07325205265890153</v>
+        <v>0.07325205165065461</v>
       </c>
     </row>
     <row r="5">
@@ -636,10 +636,10 @@
         <v>-0.0009390127944288646</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001131825170654322</v>
+        <v>0.001131825170653429</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08239937054569015</v>
+        <v>0.08239936807950213</v>
       </c>
     </row>
     <row r="6">
@@ -674,10 +674,10 @@
         <v>-0.02472855322107156</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0006451700965190372</v>
+        <v>0.0006451700965190374</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.663747841845657</v>
+        <v>-1.663747842456456</v>
       </c>
     </row>
     <row r="7">
@@ -712,10 +712,10 @@
         <v>0.003669721874044421</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001151867100258867</v>
+        <v>0.0001151867100259612</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05161688261904527</v>
+        <v>0.05161687986917466</v>
       </c>
     </row>
     <row r="8">
@@ -750,10 +750,10 @@
         <v>-0.01102711800689737</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0006281574583934051</v>
+        <v>0.0006281574583933479</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.02867455954117128</v>
+        <v>-0.02867455901064618</v>
       </c>
     </row>
     <row r="9">
@@ -788,10 +788,10 @@
         <v>-0.02348812520675025</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0007238063798347397</v>
+        <v>0.0007238063798347521</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.07297726029299288</v>
+        <v>-0.07297726328476728</v>
       </c>
     </row>
     <row r="10">
@@ -823,13 +823,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>0.009689371278530489</v>
+        <v>0.009689371278530487</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001334049161296173</v>
+        <v>0.0001334049161296137</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04069494891907754</v>
+        <v>0.04069494926113492</v>
       </c>
     </row>
     <row r="11">
@@ -864,10 +864,10 @@
         <v>-0.01452812761563707</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0007480415825368112</v>
+        <v>0.0007480415825368113</v>
       </c>
       <c r="L11" t="n">
-        <v>-3.094623847081586</v>
+        <v>-3.094623807344583</v>
       </c>
     </row>
     <row r="12">
@@ -905,7 +905,7 @@
         <v>0.001363389784438335</v>
       </c>
       <c r="L12" t="n">
-        <v>-4.13753229721413</v>
+        <v>-4.137532299401352</v>
       </c>
     </row>
     <row r="13">
@@ -940,10 +940,10 @@
         <v>0.03920261917375265</v>
       </c>
       <c r="K13" t="n">
-        <v>9.961778233350929e-05</v>
+        <v>9.961778233349362e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07325205265890153</v>
+        <v>0.07325205165065461</v>
       </c>
     </row>
     <row r="14">
@@ -978,10 +978,10 @@
         <v>0.03198602050850256</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001131825170654322</v>
+        <v>0.001131825170653429</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08239937054569015</v>
+        <v>0.08239936807950213</v>
       </c>
     </row>
     <row r="15">
@@ -1016,10 +1016,10 @@
         <v>-0.01284955821606101</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0006451700965190372</v>
+        <v>0.0006451700965190374</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.663747841845657</v>
+        <v>-1.663747842456456</v>
       </c>
     </row>
     <row r="16">
@@ -1054,10 +1054,10 @@
         <v>0.02927727197720104</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001151867100258867</v>
+        <v>0.0001151867100259612</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05161688261904527</v>
+        <v>0.05161687986917466</v>
       </c>
     </row>
     <row r="17">
@@ -1092,10 +1092,10 @@
         <v>0.005942250919244999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0006281574583934051</v>
+        <v>0.0006281574583933479</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02867455954117128</v>
+        <v>-0.02867455901064618</v>
       </c>
     </row>
     <row r="18">
@@ -1127,13 +1127,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0007654238357844762</v>
+        <v>-0.000765423835784476</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0007238063798347397</v>
+        <v>0.0007238063798347521</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.07297726029299288</v>
+        <v>-0.07297726328476728</v>
       </c>
     </row>
     <row r="19">
@@ -1168,10 +1168,10 @@
         <v>0.02600121365008018</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001334049161296173</v>
+        <v>0.0001334049161296137</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04069494891907754</v>
+        <v>0.04069494926113492</v>
       </c>
     </row>
     <row r="20">
@@ -1206,10 +1206,10 @@
         <v>-0.03150280744763258</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0007480415825368112</v>
+        <v>0.0007480415825368113</v>
       </c>
       <c r="L20" t="n">
-        <v>-3.094623847081586</v>
+        <v>-3.094623807344583</v>
       </c>
     </row>
     <row r="21">
@@ -1247,7 +1247,7 @@
         <v>0.001363389784438335</v>
       </c>
       <c r="L21" t="n">
-        <v>-4.13753229721413</v>
+        <v>-4.137532299401352</v>
       </c>
     </row>
     <row r="22">
@@ -1282,10 +1282,10 @@
         <v>0.04313023449673198</v>
       </c>
       <c r="K22" t="n">
-        <v>9.961778233350929e-05</v>
+        <v>9.961778233349362e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07325205265890153</v>
+        <v>0.07325205165065461</v>
       </c>
     </row>
     <row r="23">
@@ -1317,13 +1317,13 @@
         <v>1.125</v>
       </c>
       <c r="J23" t="n">
-        <v>0.05439029830497927</v>
+        <v>0.05439029830497928</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001131825170654322</v>
+        <v>0.001131825170653429</v>
       </c>
       <c r="L23" t="n">
-        <v>0.08239937054569015</v>
+        <v>0.08239936807950213</v>
       </c>
     </row>
     <row r="24">
@@ -1358,10 +1358,10 @@
         <v>-0.03892280582288588</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0006451700965190372</v>
+        <v>0.0006451700965190374</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.663747841845657</v>
+        <v>-1.663747842456456</v>
       </c>
     </row>
     <row r="25">
@@ -1393,13 +1393,13 @@
         <v>0.8128</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03651012206367503</v>
+        <v>0.03651012206367502</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001151867100258867</v>
+        <v>0.0001151867100259612</v>
       </c>
       <c r="L25" t="n">
-        <v>0.05161688261904527</v>
+        <v>0.05161687986917466</v>
       </c>
     </row>
     <row r="26">
@@ -1434,10 +1434,10 @@
         <v>-0.02903528640092676</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0006281574583934051</v>
+        <v>0.0006281574583933479</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.02867455954117128</v>
+        <v>-0.02867455901064618</v>
       </c>
     </row>
     <row r="27">
@@ -1472,10 +1472,10 @@
         <v>-0.03429238258953992</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0007238063798347397</v>
+        <v>0.0007238063798347521</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.07297726029299288</v>
+        <v>-0.07297726328476728</v>
       </c>
     </row>
     <row r="28">
@@ -1510,10 +1510,10 @@
         <v>0.0206497837705414</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0001334049161296173</v>
+        <v>0.0001334049161296137</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04069494891907754</v>
+        <v>0.04069494926113492</v>
       </c>
     </row>
     <row r="29">
@@ -1548,10 +1548,10 @@
         <v>-0.03537589815554228</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0007480415825368112</v>
+        <v>0.0007480415825368113</v>
       </c>
       <c r="L29" t="n">
-        <v>-3.094623847081586</v>
+        <v>-3.094623807344583</v>
       </c>
     </row>
     <row r="30">
@@ -1583,13 +1583,13 @@
         <v>0.95625</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.04295299429965501</v>
+        <v>-0.042952994299655</v>
       </c>
       <c r="K30" t="n">
         <v>0.001363389784438335</v>
       </c>
       <c r="L30" t="n">
-        <v>-4.13753229721413</v>
+        <v>-4.137532299401352</v>
       </c>
     </row>
     <row r="31">
@@ -1624,10 +1624,10 @@
         <v>0.06174853326201819</v>
       </c>
       <c r="K31" t="n">
-        <v>9.961778233350929e-05</v>
+        <v>9.961778233349362e-05</v>
       </c>
       <c r="L31" t="n">
-        <v>0.07325205265890153</v>
+        <v>0.07325205165065461</v>
       </c>
     </row>
     <row r="32">
@@ -1662,10 +1662,10 @@
         <v>0.09018568551256925</v>
       </c>
       <c r="K32" t="n">
-        <v>0.001131825170654322</v>
+        <v>0.001131825170653429</v>
       </c>
       <c r="L32" t="n">
-        <v>0.08239937054569015</v>
+        <v>0.08239936807950213</v>
       </c>
     </row>
     <row r="33">
@@ -1700,10 +1700,10 @@
         <v>-0.03248591559541431</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0006451700965190372</v>
+        <v>0.0006451700965190374</v>
       </c>
       <c r="L33" t="n">
-        <v>-1.663747841845657</v>
+        <v>-1.663747842456456</v>
       </c>
     </row>
     <row r="34">
@@ -1738,10 +1738,10 @@
         <v>0.04627583032346586</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0001151867100258867</v>
+        <v>0.0001151867100259612</v>
       </c>
       <c r="L34" t="n">
-        <v>0.05161688261904527</v>
+        <v>0.05161687986917466</v>
       </c>
     </row>
     <row r="35">
@@ -1776,10 +1776,10 @@
         <v>-0.02529613892300946</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0006281574583934051</v>
+        <v>0.0006281574583933479</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.02867455954117128</v>
+        <v>-0.02867455901064618</v>
       </c>
     </row>
     <row r="36">
@@ -1814,10 +1814,10 @@
         <v>-0.03271827903907593</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0007238063798347397</v>
+        <v>0.0007238063798347521</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.07297726029299288</v>
+        <v>-0.07297726328476728</v>
       </c>
     </row>
     <row r="37">
@@ -1852,10 +1852,10 @@
         <v>0.0342418656564975</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0001334049161296173</v>
+        <v>0.0001334049161296137</v>
       </c>
       <c r="L37" t="n">
-        <v>0.04069494891907754</v>
+        <v>0.04069494926113492</v>
       </c>
     </row>
     <row r="38">
@@ -1890,10 +1890,10 @@
         <v>-0.04355666264010372</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0007480415825368112</v>
+        <v>0.0007480415825368113</v>
       </c>
       <c r="L38" t="n">
-        <v>-3.094623847081586</v>
+        <v>-3.094623807344583</v>
       </c>
     </row>
     <row r="39">
@@ -1931,7 +1931,7 @@
         <v>0.001363389784438335</v>
       </c>
       <c r="L39" t="n">
-        <v>-4.13753229721413</v>
+        <v>-4.137532299401352</v>
       </c>
     </row>
     <row r="40">
@@ -1966,10 +1966,10 @@
         <v>0.07534586044515358</v>
       </c>
       <c r="K40" t="n">
-        <v>9.961778233350929e-05</v>
+        <v>9.961778233349362e-05</v>
       </c>
       <c r="L40" t="n">
-        <v>0.07325205265890153</v>
+        <v>0.07325205165065461</v>
       </c>
     </row>
     <row r="41">
@@ -2004,10 +2004,10 @@
         <v>0.1030071459580129</v>
       </c>
       <c r="K41" t="n">
-        <v>0.001131825170654322</v>
+        <v>0.001131825170653429</v>
       </c>
       <c r="L41" t="n">
-        <v>0.08239937054569015</v>
+        <v>0.08239936807950213</v>
       </c>
     </row>
     <row r="42">
@@ -2039,13 +2039,13 @@
         <v>0.8128</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.0177541847669772</v>
+        <v>-0.01775418476697721</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0006451700965190372</v>
+        <v>0.0006451700965190374</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.663747841845657</v>
+        <v>-1.663747842456456</v>
       </c>
     </row>
     <row r="43">
@@ -2080,10 +2080,10 @@
         <v>0.06194463448013981</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0001151867100258867</v>
+        <v>0.0001151867100259612</v>
       </c>
       <c r="L43" t="n">
-        <v>0.05161688261904527</v>
+        <v>0.05161687986917466</v>
       </c>
     </row>
     <row r="44">
@@ -2118,10 +2118,10 @@
         <v>-0.02263146209583274</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0006281574583934051</v>
+        <v>0.0006281574583933479</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.02867455954117128</v>
+        <v>-0.02867455901064618</v>
       </c>
     </row>
     <row r="45">
@@ -2156,10 +2156,10 @@
         <v>-0.02471250493847307</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0007238063798347397</v>
+        <v>0.0007238063798347521</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.07297726029299288</v>
+        <v>-0.07297726328476728</v>
       </c>
     </row>
     <row r="46">
@@ -2194,10 +2194,10 @@
         <v>0.0423068628070969</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0001334049161296173</v>
+        <v>0.0001334049161296137</v>
       </c>
       <c r="L46" t="n">
-        <v>0.04069494891907754</v>
+        <v>0.04069494926113492</v>
       </c>
     </row>
     <row r="47">
@@ -2229,13 +2229,13 @@
         <v>0.95625</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.04077934352806591</v>
+        <v>-0.04077934352806592</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0007480415825368112</v>
+        <v>0.0007480415825368113</v>
       </c>
       <c r="L47" t="n">
-        <v>-3.094623847081586</v>
+        <v>-3.094623807344583</v>
       </c>
     </row>
     <row r="48">
@@ -2273,7 +2273,7 @@
         <v>0.001363389784438335</v>
       </c>
       <c r="L48" t="n">
-        <v>-4.13753229721413</v>
+        <v>-4.137532299401352</v>
       </c>
     </row>
     <row r="49">
@@ -2308,10 +2308,10 @@
         <v>0.08189907900097949</v>
       </c>
       <c r="K49" t="n">
-        <v>9.961778233350929e-05</v>
+        <v>9.961778233349362e-05</v>
       </c>
       <c r="L49" t="n">
-        <v>0.07325205265890153</v>
+        <v>0.07325205165065461</v>
       </c>
     </row>
     <row r="50">
@@ -2346,10 +2346,10 @@
         <v>0.09102634033145843</v>
       </c>
       <c r="K50" t="n">
-        <v>0.001131825170654322</v>
+        <v>0.001131825170653429</v>
       </c>
       <c r="L50" t="n">
-        <v>0.08239937054569015</v>
+        <v>0.08239936807950213</v>
       </c>
     </row>
     <row r="51">
@@ -2384,10 +2384,10 @@
         <v>-0.0175799226134863</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0006451700965190372</v>
+        <v>0.0006451700965190374</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.663747841845657</v>
+        <v>-1.663747842456456</v>
       </c>
     </row>
     <row r="52">
@@ -2422,10 +2422,10 @@
         <v>0.06896605038101358</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0001151867100258867</v>
+        <v>0.0001151867100259612</v>
       </c>
       <c r="L52" t="n">
-        <v>0.05161688261904527</v>
+        <v>0.05161687986917466</v>
       </c>
     </row>
     <row r="53">
@@ -2457,13 +2457,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.01633598927963489</v>
+        <v>-0.01633598927963488</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0006281574583934051</v>
+        <v>0.0006281574583933479</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.02867455954117128</v>
+        <v>-0.02867455901064618</v>
       </c>
     </row>
     <row r="54">
@@ -2498,10 +2498,10 @@
         <v>-0.01931751890926057</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0007238063798347397</v>
+        <v>0.0007238063798347521</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.07297726029299288</v>
+        <v>-0.07297726328476728</v>
       </c>
     </row>
     <row r="55">
@@ -2536,10 +2536,10 @@
         <v>0.04150387866186809</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0001334049161296173</v>
+        <v>0.0001334049161296137</v>
       </c>
       <c r="L55" t="n">
-        <v>0.04069494891907754</v>
+        <v>0.04069494926113492</v>
       </c>
     </row>
     <row r="56">
@@ -2571,13 +2571,13 @@
         <v>0.95625</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.02369296600419957</v>
+        <v>-0.02369296600419956</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0007480415825368112</v>
+        <v>0.0007480415825368113</v>
       </c>
       <c r="L56" t="n">
-        <v>-3.094623847081586</v>
+        <v>-3.094623807344583</v>
       </c>
     </row>
     <row r="57">
@@ -2615,7 +2615,7 @@
         <v>0.001363389784438335</v>
       </c>
       <c r="L57" t="n">
-        <v>-4.13753229721413</v>
+        <v>-4.137532299401352</v>
       </c>
     </row>
     <row r="58">
@@ -2650,10 +2650,10 @@
         <v>0.09253245459827675</v>
       </c>
       <c r="K58" t="n">
-        <v>9.961778233350929e-05</v>
+        <v>9.961778233349362e-05</v>
       </c>
       <c r="L58" t="n">
-        <v>0.07325205265890153</v>
+        <v>0.07325205165065461</v>
       </c>
     </row>
     <row r="59">
@@ -2688,10 +2688,10 @@
         <v>0.1182698070005665</v>
       </c>
       <c r="K59" t="n">
-        <v>0.001131825170654322</v>
+        <v>0.001131825170653429</v>
       </c>
       <c r="L59" t="n">
-        <v>0.08239937054569015</v>
+        <v>0.08239936807950213</v>
       </c>
     </row>
     <row r="60">
@@ -2726,10 +2726,10 @@
         <v>-0.01102934991163995</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0006451700965190372</v>
+        <v>0.0006451700965190374</v>
       </c>
       <c r="L60" t="n">
-        <v>-1.663747841845657</v>
+        <v>-1.663747842456456</v>
       </c>
     </row>
     <row r="61">
@@ -2764,10 +2764,10 @@
         <v>0.07790458636805715</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0001151867100258867</v>
+        <v>0.0001151867100259612</v>
       </c>
       <c r="L61" t="n">
-        <v>0.05161688261904527</v>
+        <v>0.05161687986917466</v>
       </c>
     </row>
     <row r="62">
@@ -2799,13 +2799,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.03155277530712567</v>
+        <v>-0.03155277530712566</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0006281574583934051</v>
+        <v>0.0006281574583933479</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.02867455954117128</v>
+        <v>-0.02867455901064618</v>
       </c>
     </row>
     <row r="63">
@@ -2840,10 +2840,10 @@
         <v>-0.0315680589777718</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0007238063798347397</v>
+        <v>0.0007238063798347521</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.07297726029299288</v>
+        <v>-0.07297726328476728</v>
       </c>
     </row>
     <row r="64">
@@ -2878,10 +2878,10 @@
         <v>0.05577560086221601</v>
       </c>
       <c r="K64" t="n">
-        <v>0.0001334049161296173</v>
+        <v>0.0001334049161296137</v>
       </c>
       <c r="L64" t="n">
-        <v>0.04069494891907754</v>
+        <v>0.04069494926113492</v>
       </c>
     </row>
     <row r="65">
@@ -2913,13 +2913,13 @@
         <v>0.95625</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.0227672124883553</v>
+        <v>-0.02276721248835529</v>
       </c>
       <c r="K65" t="n">
-        <v>0.0001823999999035883</v>
+        <v>0.0001823999999037127</v>
       </c>
       <c r="L65" t="n">
-        <v>-0.05756184483003245</v>
+        <v>-0.05756184336297567</v>
       </c>
     </row>
     <row r="66">
@@ -2954,10 +2954,10 @@
         <v>-0.03501377539893569</v>
       </c>
       <c r="K66" t="n">
-        <v>0.0005178152826739042</v>
+        <v>0.000517815282674151</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.083090428882497</v>
+        <v>-0.08309042778070569</v>
       </c>
     </row>
     <row r="67">
@@ -3030,10 +3030,10 @@
         <v>0.02409761338117154</v>
       </c>
       <c r="K68" t="n">
-        <v>0.002317271759499701</v>
+        <v>0.002317271759499001</v>
       </c>
       <c r="L68" t="n">
-        <v>0.08677327248308159</v>
+        <v>0.08677327162893005</v>
       </c>
     </row>
     <row r="69">
@@ -3065,13 +3065,13 @@
         <v>0.8128</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.0180569493121896</v>
+        <v>-0.01805694931218961</v>
       </c>
       <c r="K69" t="n">
-        <v>0.0002784204253045751</v>
+        <v>0.0002784204253043978</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.05655909962353046</v>
+        <v>-0.05655910197641024</v>
       </c>
     </row>
     <row r="70">
@@ -3106,10 +3106,10 @@
         <v>0.006561179474186355</v>
       </c>
       <c r="K70" t="n">
-        <v>6.895266836116078e-05</v>
+        <v>6.894911275177079e-05</v>
       </c>
       <c r="L70" t="n">
-        <v>0.03977445461639822</v>
+        <v>0.03977407532325262</v>
       </c>
     </row>
     <row r="71">
@@ -3147,7 +3147,7 @@
         <v>0.001060950796304693</v>
       </c>
       <c r="L71" t="n">
-        <v>-1.946948856392428</v>
+        <v>-1.946948857872595</v>
       </c>
     </row>
     <row r="72">
@@ -3185,7 +3185,7 @@
         <v>0.001140028600645107</v>
       </c>
       <c r="L72" t="n">
-        <v>-2.684803324565507</v>
+        <v>-2.684803334788165</v>
       </c>
     </row>
     <row r="73">
@@ -3220,10 +3220,10 @@
         <v>0.00617362594724059</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0002752756107580533</v>
+        <v>0.0002752727345074223</v>
       </c>
       <c r="L73" t="n">
-        <v>0.02980046327404551</v>
+        <v>0.02980005542576717</v>
       </c>
     </row>
     <row r="74">
@@ -3258,10 +3258,10 @@
         <v>-0.01801999747511294</v>
       </c>
       <c r="K74" t="n">
-        <v>0.0001823999999035883</v>
+        <v>0.0001823999999037127</v>
       </c>
       <c r="L74" t="n">
-        <v>-0.05756184483003245</v>
+        <v>-0.05756184336297567</v>
       </c>
     </row>
     <row r="75">
@@ -3293,13 +3293,13 @@
         <v>0.95625</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.02011713597020168</v>
+        <v>-0.02011713597020169</v>
       </c>
       <c r="K75" t="n">
-        <v>0.0005178152826739042</v>
+        <v>0.000517815282674151</v>
       </c>
       <c r="L75" t="n">
-        <v>-0.083090428882497</v>
+        <v>-0.08309042778070569</v>
       </c>
     </row>
     <row r="76">
@@ -3372,10 +3372,10 @@
         <v>0.03607606105108217</v>
       </c>
       <c r="K77" t="n">
-        <v>0.002317271759499701</v>
+        <v>0.002317271759499001</v>
       </c>
       <c r="L77" t="n">
-        <v>0.08677327248308159</v>
+        <v>0.08677327162893005</v>
       </c>
     </row>
     <row r="78">
@@ -3410,10 +3410,10 @@
         <v>-0.007575830585842543</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0002784204253045751</v>
+        <v>0.0002784204253043978</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.05655909962353046</v>
+        <v>-0.05655910197641024</v>
       </c>
     </row>
     <row r="79">
@@ -3445,13 +3445,13 @@
         <v>0.8128</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01918485655505185</v>
+        <v>0.01918485655505184</v>
       </c>
       <c r="K79" t="n">
-        <v>6.895266836116078e-05</v>
+        <v>6.894911275177079e-05</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03977445461639822</v>
+        <v>0.03977407532325262</v>
       </c>
     </row>
     <row r="80">
@@ -3489,7 +3489,7 @@
         <v>0.001060950796304693</v>
       </c>
       <c r="L80" t="n">
-        <v>-1.946948856392428</v>
+        <v>-1.946948857872595</v>
       </c>
     </row>
     <row r="81">
@@ -3527,7 +3527,7 @@
         <v>0.001140028600645107</v>
       </c>
       <c r="L81" t="n">
-        <v>-2.684803324565507</v>
+        <v>-2.684803334788165</v>
       </c>
     </row>
     <row r="82">
@@ -3559,13 +3559,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="J82" t="n">
-        <v>0.00756696384461922</v>
+        <v>0.007566963844619223</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0002752756107580533</v>
+        <v>0.0002752727345074223</v>
       </c>
       <c r="L82" t="n">
-        <v>0.02980046327404551</v>
+        <v>0.02980005542576717</v>
       </c>
     </row>
     <row r="83">
@@ -3600,10 +3600,10 @@
         <v>-0.02824364019922071</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0001823999999035883</v>
+        <v>0.0001823999999037127</v>
       </c>
       <c r="L83" t="n">
-        <v>-0.05756184483003245</v>
+        <v>-0.05756184336297567</v>
       </c>
     </row>
     <row r="84">
@@ -3635,13 +3635,13 @@
         <v>0.95625</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.0260831458380429</v>
+        <v>-0.02608314583804291</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0005178152826739042</v>
+        <v>0.000517815282674151</v>
       </c>
       <c r="L84" t="n">
-        <v>-0.083090428882497</v>
+        <v>-0.08309042778070569</v>
       </c>
     </row>
     <row r="85">
@@ -3711,13 +3711,13 @@
         <v>1.125</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02721670321766393</v>
+        <v>0.02721670321766392</v>
       </c>
       <c r="K86" t="n">
-        <v>0.002317271759499701</v>
+        <v>0.002317271759499001</v>
       </c>
       <c r="L86" t="n">
-        <v>0.08677327248308159</v>
+        <v>0.08677327162893005</v>
       </c>
     </row>
     <row r="87">
@@ -3749,13 +3749,13 @@
         <v>0.8128</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.02891820929914703</v>
+        <v>-0.02891820929914704</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0002784204253045751</v>
+        <v>0.0002784204253043978</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.05655909962353046</v>
+        <v>-0.05655910197641024</v>
       </c>
     </row>
     <row r="88">
@@ -3790,10 +3790,10 @@
         <v>0.02511166295368981</v>
       </c>
       <c r="K88" t="n">
-        <v>6.895266836116078e-05</v>
+        <v>6.894911275177079e-05</v>
       </c>
       <c r="L88" t="n">
-        <v>0.03977445461639822</v>
+        <v>0.03977407532325262</v>
       </c>
     </row>
     <row r="89">
@@ -3831,7 +3831,7 @@
         <v>0.001060950796304693</v>
       </c>
       <c r="L89" t="n">
-        <v>-1.946948856392428</v>
+        <v>-1.946948857872595</v>
       </c>
     </row>
     <row r="90">
@@ -3869,7 +3869,7 @@
         <v>0.001140028600645107</v>
       </c>
       <c r="L90" t="n">
-        <v>-2.684803324565507</v>
+        <v>-2.684803334788165</v>
       </c>
     </row>
     <row r="91">
@@ -3904,10 +3904,10 @@
         <v>0.01999730184402347</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0002752756107580533</v>
+        <v>0.0002752727345074223</v>
       </c>
       <c r="L91" t="n">
-        <v>0.02980046327404551</v>
+        <v>0.02980005542576717</v>
       </c>
     </row>
     <row r="92">
@@ -3942,10 +3942,10 @@
         <v>-0.03680686150745949</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0001823999999035883</v>
+        <v>0.0001823999999037127</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.05756184483003245</v>
+        <v>-0.05756184336297567</v>
       </c>
     </row>
     <row r="93">
@@ -3980,10 +3980,10 @@
         <v>-0.04074636178555649</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0005178152826739042</v>
+        <v>0.000517815282674151</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.083090428882497</v>
+        <v>-0.08309042778070569</v>
       </c>
     </row>
     <row r="94">
@@ -4056,10 +4056,10 @@
         <v>0.1019052268776345</v>
       </c>
       <c r="K95" t="n">
-        <v>0.002317271759499701</v>
+        <v>0.002317271759499001</v>
       </c>
       <c r="L95" t="n">
-        <v>0.08677327248308159</v>
+        <v>0.08677327162893005</v>
       </c>
     </row>
     <row r="96">
@@ -4091,13 +4091,13 @@
         <v>0.8128</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.03261791421422789</v>
+        <v>-0.0326179142142279</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0002784204253045751</v>
+        <v>0.0002784204253043978</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.05655909962353046</v>
+        <v>-0.05655910197641024</v>
       </c>
     </row>
     <row r="97">
@@ -4132,10 +4132,10 @@
         <v>0.03825187237453061</v>
       </c>
       <c r="K97" t="n">
-        <v>6.895266836116078e-05</v>
+        <v>6.894911275177079e-05</v>
       </c>
       <c r="L97" t="n">
-        <v>0.03977445461639822</v>
+        <v>0.03977407532325262</v>
       </c>
     </row>
     <row r="98">
@@ -4173,7 +4173,7 @@
         <v>0.001060950796304693</v>
       </c>
       <c r="L98" t="n">
-        <v>-1.946948856392428</v>
+        <v>-1.946948857872595</v>
       </c>
     </row>
     <row r="99">
@@ -4211,7 +4211,7 @@
         <v>0.001140028600645107</v>
       </c>
       <c r="L99" t="n">
-        <v>-2.684803324565507</v>
+        <v>-2.684803334788165</v>
       </c>
     </row>
     <row r="100">
@@ -4246,10 +4246,10 @@
         <v>0.02630130263184802</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0002752756107580533</v>
+        <v>0.0002752727345074223</v>
       </c>
       <c r="L100" t="n">
-        <v>0.02980046327404551</v>
+        <v>0.02980005542576717</v>
       </c>
     </row>
     <row r="101">
@@ -4284,10 +4284,10 @@
         <v>-0.03839994366656803</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0001823999999035883</v>
+        <v>0.0001823999999037127</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.05756184483003245</v>
+        <v>-0.05756184336297567</v>
       </c>
     </row>
     <row r="102">
@@ -4322,10 +4322,10 @@
         <v>-0.04408337488741022</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0005178152826739042</v>
+        <v>0.000517815282674151</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.083090428882497</v>
+        <v>-0.08309042778070569</v>
       </c>
     </row>
     <row r="103">
@@ -4395,13 +4395,13 @@
         <v>1.125</v>
       </c>
       <c r="J104" t="n">
-        <v>0.118523572378492</v>
+        <v>0.1185235723784919</v>
       </c>
       <c r="K104" t="n">
-        <v>0.002317271759499701</v>
+        <v>0.002317271759499001</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08677327248308159</v>
+        <v>0.08677327162893005</v>
       </c>
     </row>
     <row r="105">
@@ -4436,10 +4436,10 @@
         <v>-0.02815476964480931</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0002784204253045751</v>
+        <v>0.0002784204253043978</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.05655909962353046</v>
+        <v>-0.05655910197641024</v>
       </c>
     </row>
     <row r="106">
@@ -4474,10 +4474,10 @@
         <v>0.05299387232606886</v>
       </c>
       <c r="K106" t="n">
-        <v>6.895266836116078e-05</v>
+        <v>6.894911275177079e-05</v>
       </c>
       <c r="L106" t="n">
-        <v>0.03977445461639822</v>
+        <v>0.03977407532325262</v>
       </c>
     </row>
     <row r="107">
@@ -4515,7 +4515,7 @@
         <v>0.001060950796304693</v>
       </c>
       <c r="L107" t="n">
-        <v>-1.946948856392428</v>
+        <v>-1.946948857872595</v>
       </c>
     </row>
     <row r="108">
@@ -4553,7 +4553,7 @@
         <v>0.001140028600645107</v>
       </c>
       <c r="L108" t="n">
-        <v>-2.684803324565507</v>
+        <v>-2.684803334788165</v>
       </c>
     </row>
     <row r="109">
@@ -4588,10 +4588,10 @@
         <v>0.0487129915280695</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0002752756107580533</v>
+        <v>0.0002752727345074223</v>
       </c>
       <c r="L109" t="n">
-        <v>0.02980046327404551</v>
+        <v>0.02980005542576717</v>
       </c>
     </row>
     <row r="110">
@@ -4626,10 +4626,10 @@
         <v>-0.0383997278579534</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0001823999999035883</v>
+        <v>0.0001823999999037127</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.05756184483003245</v>
+        <v>-0.05756184336297567</v>
       </c>
     </row>
     <row r="111">
@@ -4664,10 +4664,10 @@
         <v>-0.04113284513485356</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0005178152826739042</v>
+        <v>0.000517815282674151</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.083090428882497</v>
+        <v>-0.08309042778070569</v>
       </c>
     </row>
     <row r="112">
@@ -4740,10 +4740,10 @@
         <v>0.1032540821881748</v>
       </c>
       <c r="K113" t="n">
-        <v>0.002317271759499701</v>
+        <v>0.002317271759499001</v>
       </c>
       <c r="L113" t="n">
-        <v>0.08677327248308159</v>
+        <v>0.08677327162893005</v>
       </c>
     </row>
     <row r="114">
@@ -4778,10 +4778,10 @@
         <v>-0.03755182359536594</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0002784204253045751</v>
+        <v>0.0002784204253043978</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.05655909962353046</v>
+        <v>-0.05655910197641024</v>
       </c>
     </row>
     <row r="115">
@@ -4816,10 +4816,10 @@
         <v>0.05680154624179143</v>
       </c>
       <c r="K115" t="n">
-        <v>6.895266836116078e-05</v>
+        <v>6.894911275177079e-05</v>
       </c>
       <c r="L115" t="n">
-        <v>0.03977445461639822</v>
+        <v>0.03977407532325262</v>
       </c>
     </row>
     <row r="116">
@@ -4857,7 +4857,7 @@
         <v>0.001060950796304693</v>
       </c>
       <c r="L116" t="n">
-        <v>-1.946948856392428</v>
+        <v>-1.946948857872595</v>
       </c>
     </row>
     <row r="117">
@@ -4895,7 +4895,7 @@
         <v>0.001140028600645107</v>
       </c>
       <c r="L117" t="n">
-        <v>-2.684803324565507</v>
+        <v>-2.684803334788165</v>
       </c>
     </row>
     <row r="118">
@@ -4930,10 +4930,10 @@
         <v>0.03710080573044876</v>
       </c>
       <c r="K118" t="n">
-        <v>0.0002752756107580533</v>
+        <v>0.0002752727345074223</v>
       </c>
       <c r="L118" t="n">
-        <v>0.02980046327404551</v>
+        <v>0.02980005542576717</v>
       </c>
     </row>
     <row r="119">
@@ -4968,10 +4968,10 @@
         <v>-0.0514366656867129</v>
       </c>
       <c r="K119" t="n">
-        <v>0.0001823999999035883</v>
+        <v>0.0001823999999037127</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.05756184483003245</v>
+        <v>-0.05756184336297567</v>
       </c>
     </row>
     <row r="120">
@@ -5006,10 +5006,10 @@
         <v>-0.05174622238586161</v>
       </c>
       <c r="K120" t="n">
-        <v>0.0005178152826739042</v>
+        <v>0.000517815282674151</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.083090428882497</v>
+        <v>-0.08309042778070569</v>
       </c>
     </row>
     <row r="121">
@@ -5082,10 +5082,10 @@
         <v>0.1214940137418735</v>
       </c>
       <c r="K122" t="n">
-        <v>0.002317271759499701</v>
+        <v>0.002317271759499001</v>
       </c>
       <c r="L122" t="n">
-        <v>0.08677327248308159</v>
+        <v>0.08677327162893005</v>
       </c>
     </row>
     <row r="123">
@@ -5120,10 +5120,10 @@
         <v>-0.02831951893271614</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0002784204253045751</v>
+        <v>0.0002784204253043978</v>
       </c>
       <c r="L123" t="n">
-        <v>-0.05655909962353046</v>
+        <v>-0.05655910197641024</v>
       </c>
     </row>
     <row r="124">
@@ -5158,10 +5158,10 @@
         <v>0.07327882839059549</v>
       </c>
       <c r="K124" t="n">
-        <v>6.895266836116078e-05</v>
+        <v>6.894911275177079e-05</v>
       </c>
       <c r="L124" t="n">
-        <v>0.03977445461639822</v>
+        <v>0.03977407532325262</v>
       </c>
     </row>
     <row r="125">
@@ -5199,7 +5199,7 @@
         <v>0.001060950796304693</v>
       </c>
       <c r="L125" t="n">
-        <v>-1.946948856392428</v>
+        <v>-1.946948857872595</v>
       </c>
     </row>
     <row r="126">
@@ -5231,13 +5231,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="J126" t="n">
-        <v>-0.02108066114084645</v>
+        <v>-0.02108066114084644</v>
       </c>
       <c r="K126" t="n">
         <v>0.001140028600645107</v>
       </c>
       <c r="L126" t="n">
-        <v>-2.684803324565507</v>
+        <v>-2.684803334788165</v>
       </c>
     </row>
     <row r="127">
@@ -5272,10 +5272,10 @@
         <v>0.05574452209272777</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0002752756107580533</v>
+        <v>0.0002752727345074223</v>
       </c>
       <c r="L127" t="n">
-        <v>0.02980046327404551</v>
+        <v>0.02980005542576717</v>
       </c>
     </row>
     <row r="128">
@@ -5307,13 +5307,13 @@
         <v>0.95625</v>
       </c>
       <c r="J128" t="n">
-        <v>-0.01803586153358039</v>
+        <v>-0.0180358615335804</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0001778168495472295</v>
+        <v>0.0001778168495471459</v>
       </c>
       <c r="L128" t="n">
-        <v>-0.03348737002307384</v>
+        <v>-0.03348737114372101</v>
       </c>
     </row>
     <row r="129">
@@ -5348,10 +5348,10 @@
         <v>-0.02570769718576299</v>
       </c>
       <c r="K129" t="n">
-        <v>0.0002427428797145863</v>
+        <v>0.0002427428797142258</v>
       </c>
       <c r="L129" t="n">
-        <v>-0.08305654126681858</v>
+        <v>-0.08305654351735324</v>
       </c>
     </row>
     <row r="130">
@@ -5386,10 +5386,10 @@
         <v>-0.01279590527616808</v>
       </c>
       <c r="K130" t="n">
-        <v>0.0004480021097118831</v>
+        <v>0.000448003848283797</v>
       </c>
       <c r="L130" t="n">
-        <v>0.03095536465309056</v>
+        <v>0.03095569203843487</v>
       </c>
     </row>
     <row r="131">
@@ -5427,7 +5427,7 @@
         <v>0.000719548947233797</v>
       </c>
       <c r="L131" t="n">
-        <v>-2.140206088518668</v>
+        <v>-2.140205507338838</v>
       </c>
     </row>
     <row r="132">
@@ -5462,10 +5462,10 @@
         <v>0.007198464495492001</v>
       </c>
       <c r="K132" t="n">
-        <v>0.000229329082500208</v>
+        <v>0.0002293290825001973</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04704723677854555</v>
+        <v>0.04704723758675466</v>
       </c>
     </row>
     <row r="133">
@@ -5500,10 +5500,10 @@
         <v>-0.03699784202815844</v>
       </c>
       <c r="K133" t="n">
-        <v>0.001448824326258265</v>
+        <v>0.001448824326259004</v>
       </c>
       <c r="L133" t="n">
-        <v>-0.1152238158299046</v>
+        <v>-0.1152238074174947</v>
       </c>
     </row>
     <row r="134">
@@ -5538,10 +5538,10 @@
         <v>-0.04400373776055409</v>
       </c>
       <c r="K134" t="n">
-        <v>0.001586845310615285</v>
+        <v>0.00158684531061402</v>
       </c>
       <c r="L134" t="n">
-        <v>-0.1636712745682533</v>
+        <v>-0.163671269168085</v>
       </c>
     </row>
     <row r="135">
@@ -5576,10 +5576,10 @@
         <v>0.01350314551347555</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0002482144942682801</v>
+        <v>0.000248216641917012</v>
       </c>
       <c r="L135" t="n">
-        <v>0.02852567142553546</v>
+        <v>0.02852598171262268</v>
       </c>
     </row>
     <row r="136">
@@ -5614,10 +5614,10 @@
         <v>-0.005654905274091701</v>
       </c>
       <c r="K136" t="n">
-        <v>0.0001778168495472295</v>
+        <v>0.0001778168495471459</v>
       </c>
       <c r="L136" t="n">
-        <v>-0.03348737002307384</v>
+        <v>-0.03348737114372101</v>
       </c>
     </row>
     <row r="137">
@@ -5652,10 +5652,10 @@
         <v>-0.01205712814659515</v>
       </c>
       <c r="K137" t="n">
-        <v>0.0002427428797145863</v>
+        <v>0.0002427428797142258</v>
       </c>
       <c r="L137" t="n">
-        <v>-0.08305654126681858</v>
+        <v>-0.08305654351735324</v>
       </c>
     </row>
     <row r="138">
@@ -5690,10 +5690,10 @@
         <v>0.01789119191550942</v>
       </c>
       <c r="K138" t="n">
-        <v>0.0004480021097118831</v>
+        <v>0.000448003848283797</v>
       </c>
       <c r="L138" t="n">
-        <v>0.03095536465309056</v>
+        <v>0.03095569203843487</v>
       </c>
     </row>
     <row r="139">
@@ -5731,7 +5731,7 @@
         <v>0.000719548947233797</v>
       </c>
       <c r="L139" t="n">
-        <v>-2.140206088518668</v>
+        <v>-2.140205507338838</v>
       </c>
     </row>
     <row r="140">
@@ -5766,10 +5766,10 @@
         <v>0.0319596716712823</v>
       </c>
       <c r="K140" t="n">
-        <v>0.000229329082500208</v>
+        <v>0.0002293290825001973</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04704723677854555</v>
+        <v>0.04704723758675466</v>
       </c>
     </row>
     <row r="141">
@@ -5804,10 +5804,10 @@
         <v>-0.004794426457117328</v>
       </c>
       <c r="K141" t="n">
-        <v>0.001448824326258265</v>
+        <v>0.001448824326259004</v>
       </c>
       <c r="L141" t="n">
-        <v>-0.1152238158299046</v>
+        <v>-0.1152238074174947</v>
       </c>
     </row>
     <row r="142">
@@ -5842,10 +5842,10 @@
         <v>-0.01162458030080707</v>
       </c>
       <c r="K142" t="n">
-        <v>0.001586845310615285</v>
+        <v>0.00158684531061402</v>
       </c>
       <c r="L142" t="n">
-        <v>-0.1636712745682533</v>
+        <v>-0.163671269168085</v>
       </c>
     </row>
     <row r="143">
@@ -5880,10 +5880,10 @@
         <v>0.01263701517181049</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0002482144942682801</v>
+        <v>0.000248216641917012</v>
       </c>
       <c r="L143" t="n">
-        <v>0.02852567142553546</v>
+        <v>0.02852598171262268</v>
       </c>
     </row>
     <row r="144">
@@ -5918,10 +5918,10 @@
         <v>-0.01439582244352116</v>
       </c>
       <c r="K144" t="n">
-        <v>0.0001778168495472295</v>
+        <v>0.0001778168495471459</v>
       </c>
       <c r="L144" t="n">
-        <v>-0.03348737002307384</v>
+        <v>-0.03348737114372101</v>
       </c>
     </row>
     <row r="145">
@@ -5956,10 +5956,10 @@
         <v>-0.0274771318784537</v>
       </c>
       <c r="K145" t="n">
-        <v>0.0002427428797145863</v>
+        <v>0.0002427428797142258</v>
       </c>
       <c r="L145" t="n">
-        <v>-0.08305654126681858</v>
+        <v>-0.08305654351735324</v>
       </c>
     </row>
     <row r="146">
@@ -5994,10 +5994,10 @@
         <v>0.02155535978854637</v>
       </c>
       <c r="K146" t="n">
-        <v>0.0004480021097118831</v>
+        <v>0.000448003848283797</v>
       </c>
       <c r="L146" t="n">
-        <v>0.03095536465309056</v>
+        <v>0.03095569203843487</v>
       </c>
     </row>
     <row r="147">
@@ -6035,7 +6035,7 @@
         <v>0.000719548947233797</v>
       </c>
       <c r="L147" t="n">
-        <v>-2.140206088518668</v>
+        <v>-2.140205507338838</v>
       </c>
     </row>
     <row r="148">
@@ -6070,10 +6070,10 @@
         <v>0.02378853285815149</v>
       </c>
       <c r="K148" t="n">
-        <v>0.000229329082500208</v>
+        <v>0.0002293290825001973</v>
       </c>
       <c r="L148" t="n">
-        <v>0.04704723677854555</v>
+        <v>0.04704723758675466</v>
       </c>
     </row>
     <row r="149">
@@ -6108,10 +6108,10 @@
         <v>-0.04445701286733231</v>
       </c>
       <c r="K149" t="n">
-        <v>0.001448824326258265</v>
+        <v>0.001448824326259004</v>
       </c>
       <c r="L149" t="n">
-        <v>-0.1152238158299046</v>
+        <v>-0.1152238074174947</v>
       </c>
     </row>
     <row r="150">
@@ -6146,10 +6146,10 @@
         <v>-0.04718431339961045</v>
       </c>
       <c r="K150" t="n">
-        <v>0.001586845310615285</v>
+        <v>0.00158684531061402</v>
       </c>
       <c r="L150" t="n">
-        <v>-0.1636712745682533</v>
+        <v>-0.163671269168085</v>
       </c>
     </row>
     <row r="151">
@@ -6184,10 +6184,10 @@
         <v>0.01656072853309828</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0002482144942682801</v>
+        <v>0.000248216641917012</v>
       </c>
       <c r="L151" t="n">
-        <v>0.02852567142553546</v>
+        <v>0.02852598171262268</v>
       </c>
     </row>
     <row r="152">
@@ -6222,10 +6222,10 @@
         <v>-0.02047480550571215</v>
       </c>
       <c r="K152" t="n">
-        <v>0.0001778168495472295</v>
+        <v>0.0001778168495471459</v>
       </c>
       <c r="L152" t="n">
-        <v>-0.03348737002307384</v>
+        <v>-0.03348737114372101</v>
       </c>
     </row>
     <row r="153">
@@ -6260,10 +6260,10 @@
         <v>-0.02849903329998389</v>
       </c>
       <c r="K153" t="n">
-        <v>0.0002427428797145863</v>
+        <v>0.0002427428797142258</v>
       </c>
       <c r="L153" t="n">
-        <v>-0.08305654126681858</v>
+        <v>-0.08305654351735324</v>
       </c>
     </row>
     <row r="154">
@@ -6298,10 +6298,10 @@
         <v>0.03389717484854245</v>
       </c>
       <c r="K154" t="n">
-        <v>0.0004480021097118831</v>
+        <v>0.000448003848283797</v>
       </c>
       <c r="L154" t="n">
-        <v>0.03095536465309056</v>
+        <v>0.03095569203843487</v>
       </c>
     </row>
     <row r="155">
@@ -6339,7 +6339,7 @@
         <v>0.000719548947233797</v>
       </c>
       <c r="L155" t="n">
-        <v>-2.140206088518668</v>
+        <v>-2.140205507338838</v>
       </c>
     </row>
     <row r="156">
@@ -6374,10 +6374,10 @@
         <v>0.04308537611144072</v>
       </c>
       <c r="K156" t="n">
-        <v>0.000229329082500208</v>
+        <v>0.0002293290825001973</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04704723677854555</v>
+        <v>0.04704723758675466</v>
       </c>
     </row>
     <row r="157">
@@ -6412,10 +6412,10 @@
         <v>-0.04230620902334416</v>
       </c>
       <c r="K157" t="n">
-        <v>0.001448824326258265</v>
+        <v>0.001448824326259004</v>
       </c>
       <c r="L157" t="n">
-        <v>-0.1152238158299046</v>
+        <v>-0.1152238074174947</v>
       </c>
     </row>
     <row r="158">
@@ -6450,10 +6450,10 @@
         <v>-0.04754741361490155</v>
       </c>
       <c r="K158" t="n">
-        <v>0.001586845310615285</v>
+        <v>0.00158684531061402</v>
       </c>
       <c r="L158" t="n">
-        <v>-0.1636712745682533</v>
+        <v>-0.163671269168085</v>
       </c>
     </row>
     <row r="159">
@@ -6488,10 +6488,10 @@
         <v>0.02670105094240953</v>
       </c>
       <c r="K159" t="n">
-        <v>0.0002482144942682801</v>
+        <v>0.000248216641917012</v>
       </c>
       <c r="L159" t="n">
-        <v>0.02852567142553546</v>
+        <v>0.02852598171262268</v>
       </c>
     </row>
     <row r="160">
@@ -6526,10 +6526,10 @@
         <v>-0.02405337291677196</v>
       </c>
       <c r="K160" t="n">
-        <v>0.0001778168495472295</v>
+        <v>0.0001778168495471459</v>
       </c>
       <c r="L160" t="n">
-        <v>-0.03348737002307384</v>
+        <v>-0.03348737114372101</v>
       </c>
     </row>
     <row r="161">
@@ -6564,10 +6564,10 @@
         <v>-0.02795284436612108</v>
       </c>
       <c r="K161" t="n">
-        <v>0.0002427428797145863</v>
+        <v>0.0002427428797142258</v>
       </c>
       <c r="L161" t="n">
-        <v>-0.08305654126681858</v>
+        <v>-0.08305654351735324</v>
       </c>
     </row>
     <row r="162">
@@ -6602,10 +6602,10 @@
         <v>0.04123849429985824</v>
       </c>
       <c r="K162" t="n">
-        <v>0.0004480021097118831</v>
+        <v>0.000448003848283797</v>
       </c>
       <c r="L162" t="n">
-        <v>0.03095536465309056</v>
+        <v>0.03095569203843487</v>
       </c>
     </row>
     <row r="163">
@@ -6643,7 +6643,7 @@
         <v>0.000719548947233797</v>
       </c>
       <c r="L163" t="n">
-        <v>-2.140206088518668</v>
+        <v>-2.140205507338838</v>
       </c>
     </row>
     <row r="164">
@@ -6675,13 +6675,13 @@
         <v>0.8128</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04207097969504032</v>
+        <v>0.04207097969504031</v>
       </c>
       <c r="K164" t="n">
-        <v>0.000229329082500208</v>
+        <v>0.0002293290825001973</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04704723677854555</v>
+        <v>0.04704723758675466</v>
       </c>
     </row>
     <row r="165">
@@ -6716,10 +6716,10 @@
         <v>-0.03999175264014236</v>
       </c>
       <c r="K165" t="n">
-        <v>0.001448824326258265</v>
+        <v>0.001448824326259004</v>
       </c>
       <c r="L165" t="n">
-        <v>-0.1152238158299046</v>
+        <v>-0.1152238074174947</v>
       </c>
     </row>
     <row r="166">
@@ -6754,10 +6754,10 @@
         <v>-0.05077662005011527</v>
       </c>
       <c r="K166" t="n">
-        <v>0.001586845310615285</v>
+        <v>0.00158684531061402</v>
       </c>
       <c r="L166" t="n">
-        <v>-0.1636712745682533</v>
+        <v>-0.163671269168085</v>
       </c>
     </row>
     <row r="167">
@@ -6792,10 +6792,10 @@
         <v>0.03931515402944431</v>
       </c>
       <c r="K167" t="n">
-        <v>0.0002482144942682801</v>
+        <v>0.000248216641917012</v>
       </c>
       <c r="L167" t="n">
-        <v>0.02852567142553546</v>
+        <v>0.02852598171262268</v>
       </c>
     </row>
     <row r="168">
@@ -6827,13 +6827,13 @@
         <v>0.95625</v>
       </c>
       <c r="J168" t="n">
-        <v>-0.02246130969097903</v>
+        <v>-0.02246130969097904</v>
       </c>
       <c r="K168" t="n">
-        <v>0.0001778168495472295</v>
+        <v>0.0001778168495471459</v>
       </c>
       <c r="L168" t="n">
-        <v>-0.03348737002307384</v>
+        <v>-0.03348737114372101</v>
       </c>
     </row>
     <row r="169">
@@ -6865,13 +6865,13 @@
         <v>0.95625</v>
       </c>
       <c r="J169" t="n">
-        <v>-0.03283523172333366</v>
+        <v>-0.03283523172333367</v>
       </c>
       <c r="K169" t="n">
-        <v>0.0002427428797145863</v>
+        <v>0.0002427428797142258</v>
       </c>
       <c r="L169" t="n">
-        <v>-0.08305654126681858</v>
+        <v>-0.08305654351735324</v>
       </c>
     </row>
     <row r="170">
@@ -6903,13 +6903,13 @@
         <v>0.95625</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04497700473566384</v>
+        <v>0.04497700473566385</v>
       </c>
       <c r="K170" t="n">
-        <v>0.0004480021097118831</v>
+        <v>0.000448003848283797</v>
       </c>
       <c r="L170" t="n">
-        <v>0.03095536465309056</v>
+        <v>0.03095569203843487</v>
       </c>
     </row>
     <row r="171">
@@ -6947,7 +6947,7 @@
         <v>0.000719548947233797</v>
       </c>
       <c r="L171" t="n">
-        <v>-2.140206088518668</v>
+        <v>-2.140205507338838</v>
       </c>
     </row>
     <row r="172">
@@ -6982,10 +6982,10 @@
         <v>0.05081965242925736</v>
       </c>
       <c r="K172" t="n">
-        <v>0.000229329082500208</v>
+        <v>0.0002293290825001973</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04704723677854555</v>
+        <v>0.04704723758675466</v>
       </c>
     </row>
     <row r="173">
@@ -7020,10 +7020,10 @@
         <v>-0.05445228872966827</v>
       </c>
       <c r="K173" t="n">
-        <v>0.001448824326258265</v>
+        <v>0.001448824326259004</v>
       </c>
       <c r="L173" t="n">
-        <v>-0.1152238158299046</v>
+        <v>-0.1152238074174947</v>
       </c>
     </row>
     <row r="174">
@@ -7058,10 +7058,10 @@
         <v>-0.06117112213576997</v>
       </c>
       <c r="K174" t="n">
-        <v>0.001586845310615285</v>
+        <v>0.00158684531061402</v>
       </c>
       <c r="L174" t="n">
-        <v>-0.1636712745682533</v>
+        <v>-0.163671269168085</v>
       </c>
     </row>
     <row r="175">
@@ -7093,13 +7093,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03305972643427542</v>
+        <v>0.03305972643427541</v>
       </c>
       <c r="K175" t="n">
-        <v>0.0002482144942682801</v>
+        <v>0.000248216641917012</v>
       </c>
       <c r="L175" t="n">
-        <v>0.02852567142553546</v>
+        <v>0.02852598171262268</v>
       </c>
     </row>
     <row r="176">
@@ -7134,10 +7134,10 @@
         <v>-0.0257669801579303</v>
       </c>
       <c r="K176" t="n">
-        <v>0.0001778168495472295</v>
+        <v>0.0001778168495471459</v>
       </c>
       <c r="L176" t="n">
-        <v>-0.03348737002307384</v>
+        <v>-0.03348737114372101</v>
       </c>
     </row>
     <row r="177">
@@ -7169,13 +7169,13 @@
         <v>0.95625</v>
       </c>
       <c r="J177" t="n">
-        <v>-0.03264477739550198</v>
+        <v>-0.03264477739550199</v>
       </c>
       <c r="K177" t="n">
-        <v>0.0002427428797145863</v>
+        <v>0.0002427428797142258</v>
       </c>
       <c r="L177" t="n">
-        <v>-0.08305654126681858</v>
+        <v>-0.08305654351735324</v>
       </c>
     </row>
     <row r="178">
@@ -7210,10 +7210,10 @@
         <v>0.05485384611873637</v>
       </c>
       <c r="K178" t="n">
-        <v>0.0004480021097118831</v>
+        <v>0.000448003848283797</v>
       </c>
       <c r="L178" t="n">
-        <v>0.03095536465309056</v>
+        <v>0.03095569203843487</v>
       </c>
     </row>
     <row r="179">
@@ -7251,7 +7251,7 @@
         <v>0.000719548947233797</v>
       </c>
       <c r="L179" t="n">
-        <v>-2.140206088518668</v>
+        <v>-2.140205507338838</v>
       </c>
     </row>
     <row r="180">
@@ -7286,10 +7286,10 @@
         <v>0.06299165078273905</v>
       </c>
       <c r="K180" t="n">
-        <v>0.000229329082500208</v>
+        <v>0.0002293290825001973</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04704723677854555</v>
+        <v>0.04704723758675466</v>
       </c>
     </row>
     <row r="181">
@@ -7324,10 +7324,10 @@
         <v>-0.02598986020421964</v>
       </c>
       <c r="K181" t="n">
-        <v>0.001448824326258265</v>
+        <v>0.001448824326259004</v>
       </c>
       <c r="L181" t="n">
-        <v>-0.1152238158299046</v>
+        <v>-0.1152238074174947</v>
       </c>
     </row>
     <row r="182">
@@ -7359,13 +7359,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.02855174623075855</v>
+        <v>-0.02855174623075854</v>
       </c>
       <c r="K182" t="n">
-        <v>0.001586845310615285</v>
+        <v>0.00158684531061402</v>
       </c>
       <c r="L182" t="n">
-        <v>-0.1636712745682533</v>
+        <v>-0.163671269168085</v>
       </c>
     </row>
     <row r="183">
@@ -7400,10 +7400,10 @@
         <v>0.05830018393666428</v>
       </c>
       <c r="K183" t="n">
-        <v>0.0002482144942682801</v>
+        <v>0.000248216641917012</v>
       </c>
       <c r="L183" t="n">
-        <v>0.02852567142553546</v>
+        <v>0.02852598171262268</v>
       </c>
     </row>
   </sheetData>
